--- a/data/VITA12 CENTRIFUGE TUBES TRIAL STUDY.xlsx
+++ b/data/VITA12 CENTRIFUGE TUBES TRIAL STUDY.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\khang\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,9 @@
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -149,7 +147,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +171,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
@@ -235,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,26 +459,26 @@
   <dimension ref="C1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:10">
       <c r="G1" s="11"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10">
       <c r="F2" s="7"/>
       <c r="G2" s="11" t="s">
         <v>6</v>
@@ -492,11 +493,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -518,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -544,7 +545,7 @@
         <v>0.50829999999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10">
       <c r="F5" t="s">
         <v>9</v>
       </c>
@@ -555,7 +556,7 @@
         <v>0.50990000000000002</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10">
       <c r="F6" t="s">
         <v>10</v>
       </c>
@@ -566,7 +567,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10">
       <c r="F7">
         <v>9489860</v>
       </c>
@@ -583,7 +584,7 @@
         <v>0.50949999999999995</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10">
       <c r="F8">
         <v>9494808</v>
       </c>
@@ -600,13 +601,13 @@
         <v>5.0453000000000001</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10">
       <c r="G9" s="12"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10">
       <c r="C10" t="s">
         <v>13</v>
       </c>
@@ -632,7 +633,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10">
       <c r="F11" t="s">
         <v>9</v>
       </c>
@@ -643,7 +644,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10">
       <c r="F12" t="s">
         <v>10</v>
       </c>
@@ -654,7 +655,7 @@
         <v>0.50900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10">
       <c r="F13">
         <v>9482796</v>
       </c>
@@ -671,7 +672,7 @@
         <v>0.50729999999999997</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10">
       <c r="F14">
         <v>9483380</v>
       </c>
@@ -688,13 +689,13 @@
         <v>0.50900000000000001</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10">
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:10">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -720,7 +721,7 @@
         <v>0.50649999999999995</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:10">
       <c r="F17" t="s">
         <v>9</v>
       </c>
@@ -733,7 +734,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -745,14 +751,19 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="9:11">
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>